--- a/reactive/power_throughput-full-adaptive.xlsx
+++ b/reactive/power_throughput-full-adaptive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E4BC8E-77E4-412F-A7F4-D2A9A999E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF0B36-AB29-4338-960E-BACE092914AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="1104" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1584" windowWidth="31740" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -476,11 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E121" sqref="E102:E121"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,9 +650,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -734,9 +733,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -817,9 +816,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -900,9 +899,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -983,9 +982,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1066,9 +1065,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1149,9 +1148,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1232,9 +1231,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1315,9 +1314,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1398,9 +1397,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1481,9 +1480,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1564,9 +1563,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1647,9 +1646,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1730,9 +1729,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1813,9 +1812,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1896,9 +1895,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1979,9 +1978,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2062,9 +2061,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2145,9 +2144,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2228,9 +2227,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -2311,9 +2310,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2394,9 +2393,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2477,9 +2476,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2560,9 +2559,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2643,9 +2642,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2726,9 +2725,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2809,9 +2808,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2892,9 +2891,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2975,9 +2974,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3058,9 +3057,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -3141,9 +3140,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -3224,9 +3223,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -3307,9 +3306,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -3390,9 +3389,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -3473,9 +3472,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -3556,9 +3555,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -3639,9 +3638,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3722,9 +3721,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -3805,9 +3804,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -3888,9 +3887,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -3971,9 +3970,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -4054,9 +4053,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -4137,9 +4136,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -4220,9 +4219,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -4303,9 +4302,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -4386,9 +4385,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -4469,9 +4468,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -4552,9 +4551,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -4635,9 +4634,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -4718,9 +4717,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -4801,9 +4800,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -4884,9 +4883,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -4967,9 +4966,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -5050,9 +5049,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -5133,9 +5132,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -5216,9 +5215,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -5299,9 +5298,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -5382,9 +5381,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -5465,9 +5464,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -5548,9 +5547,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -5631,9 +5630,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -5714,9 +5713,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -5797,9 +5796,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -5880,9 +5879,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -5963,9 +5962,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -6046,9 +6045,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -6129,9 +6128,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -6212,9 +6211,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -6295,9 +6294,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -6378,9 +6377,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -6461,9 +6460,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -6544,9 +6543,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -6627,9 +6626,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -6710,9 +6709,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -6793,9 +6792,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -6876,9 +6875,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -6959,9 +6958,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -7042,9 +7041,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -7125,9 +7124,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -7208,9 +7207,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -7291,9 +7290,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -7374,9 +7373,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -7457,9 +7456,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -7540,9 +7539,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -7623,9 +7622,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -7706,9 +7705,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -7789,9 +7788,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -7872,9 +7871,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -7955,9 +7954,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -8038,9 +8037,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -8121,9 +8120,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -8204,9 +8203,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -8287,9 +8286,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -8370,9 +8369,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -8453,9 +8452,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -8536,9 +8535,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -8619,9 +8618,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -8702,9 +8701,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -8785,9 +8784,9 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -8870,7 +8869,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -8953,7 +8952,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -9036,7 +9035,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -9119,7 +9118,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -9202,7 +9201,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -9285,7 +9284,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
@@ -9368,7 +9367,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -9451,7 +9450,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
@@ -9534,7 +9533,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>26</v>
@@ -9617,7 +9616,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
@@ -9700,7 +9699,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -9783,7 +9782,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -9866,7 +9865,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>26</v>
@@ -9949,7 +9948,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -10032,7 +10031,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
@@ -10115,7 +10114,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
@@ -10198,7 +10197,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
@@ -10281,7 +10280,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
@@ -10364,7 +10363,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>26</v>
@@ -10447,7 +10446,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>26</v>
@@ -10529,13 +10528,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA121" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="uniform_random"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>